--- a/gameData/shared/LocationInitData.xlsx
+++ b/gameData/shared/LocationInitData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3540" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
+    <workbookView xWindow="5540" yWindow="21600" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
   </bookViews>
   <sheets>
     <sheet name="locations" sheetId="2" r:id="rId1"/>
@@ -281,7 +281,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="14">
+  <cellStyleXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -300,6 +300,16 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -313,7 +323,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="14">
+  <cellStyles count="24">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -323,8 +333,18 @@
     <cellStyle name="标题 2 1" xfId="7"/>
     <cellStyle name="超链接" xfId="10" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="12" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="14" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="16" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="18" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="20" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="22" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="23" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -777,7 +797,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -845,10 +865,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="20" customHeight="1">
@@ -944,10 +964,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="20" customHeight="1">
